--- a/Upper2.xlsx
+++ b/Upper2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,146 +458,884 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44869.625</v>
+        <v>44113.4375</v>
       </c>
       <c r="B2" t="n">
-        <v>21171.59973659801</v>
+        <v>2.624057326251491</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44869.66666666666</v>
+        <v>44113.75</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>20675.76724782426</v>
+        <v>2.529929216439943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44873.6875</v>
+        <v>44116.21875</v>
       </c>
       <c r="B4" t="n">
-        <v>20662.64716853005</v>
+        <v>2.577148938021923</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44873.71875</v>
+        <v>44116.4375</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>19788.1816376747</v>
+        <v>2.506602201215864</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44895.05208333334</v>
+        <v>44125.625</v>
       </c>
       <c r="B6" t="n">
-        <v>16857.43266613401</v>
+        <v>2.064930323379076</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44895.52083333334</v>
+        <v>44125.75</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>16841.07375354354</v>
+        <v>1.948202576129336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44903.84375</v>
+        <v>44140.625</v>
       </c>
       <c r="B8" t="n">
-        <v>17239.00395346748</v>
+        <v>1.473605327493161</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44904.34375</v>
+        <v>44140.89583333334</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>17202.1501700419</v>
+        <v>1.399119555796174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44907.875</v>
+        <v>44141.07291666666</v>
       </c>
       <c r="B10" t="n">
-        <v>17198.16712816977</v>
+        <v>1.534763382555953</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44908.29166666666</v>
+        <v>44142.58333333334</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>17139.82070122949</v>
+        <v>2.245845942664026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44908.41666666666</v>
+        <v>44150.33333333334</v>
       </c>
       <c r="B12" t="n">
-        <v>17424.58574664291</v>
+        <v>2.124042568469128</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44909.1875</v>
+        <v>44150.71875</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>17752.12376290558</v>
+        <v>2.120061942745602</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44909.77083333334</v>
+        <v>44156.625</v>
       </c>
       <c r="B14" t="n">
-        <v>18324.67078002571</v>
+        <v>2.384460315236138</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44909.78125</v>
+        <v>44156.92708333334</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>17964.94316615018</v>
+        <v>2.332787075837039</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44928.30208333334</v>
+        <v>44166.32291666666</v>
       </c>
       <c r="B16" t="n">
-        <v>16760.50710910497</v>
+        <v>2.11934372560283</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44928.60416666666</v>
+        <v>44166.46875</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>16687.52973604036</v>
+        <v>2.030759496013879</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44178.51041666666</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.582279258896276</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44178.83333333334</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>1.572894510843002</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44180.125</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.684749946143492</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44180.59375</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>1.718387281079325</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44193.90625</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.509821261952194</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44194.14583333334</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1.458924410287995</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44197.75</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.793313749675711</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44198.01041666666</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>1.71288944917752</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44199.34375</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.191353001611104</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44199.5625</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>2.087590663488635</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44203.02083333334</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.408448201722324</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44203.32291666666</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>2.035152556301732</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44204.41666666666</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.93088165359533</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44204.83333333334</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>3.162118492340033</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44208.75</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.866182596479625</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44208.94791666666</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>3.491439818674266</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44221.78125</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.9779009571875</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44221.91666666666</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>3.709444001235063</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44226.70833333334</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.220678327603573</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44227.57291666666</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>4.495481812105577</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44229.10416666666</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.793212043252794</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44229.64583333334</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>5.071733591711183</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44230.66666666666</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5.695216737990368</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44231.33333333334</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>5.836000784648195</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44231.95833333334</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6.466916924659679</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44232.4375</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>6.69431431101309</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44235.25</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7.336887474549163</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44235.55208333334</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>7.209801414741562</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44242.63541666666</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9.137016394552445</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44242.91666666666</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>8.906560377632911</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44245.625</v>
+      </c>
+      <c r="B48" t="n">
+        <v>9.123922731464734</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44246.0625</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>8.970357148654591</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44246.5</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9.97321975987164</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44247.03125</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>11.08366481300376</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44248.75</v>
+      </c>
+      <c r="B52" t="n">
+        <v>11.55468098062045</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44248.86458333334</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>10.85027742152425</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44249.72916666666</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11.97617648402001</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44250.20833333334</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>13.26324218499715</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44255.875</v>
+      </c>
+      <c r="B56" t="n">
+        <v>13.75426621764772</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44256.73958333334</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>14.79964375935475</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44261.875</v>
+      </c>
+      <c r="B58" t="n">
+        <v>13.25282555723675</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44262.20833333334</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>12.93024683473671</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44262.5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>13.79657425124296</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44262.83333333334</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>13.54889844927189</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44266.70833333334</v>
+      </c>
+      <c r="B62" t="n">
+        <v>15.17787567887386</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44267.3125</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>16.01936378958497</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44277.13541666666</v>
+      </c>
+      <c r="B64" t="n">
+        <v>15.01658296672071</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44277.5625</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>15.76496271752683</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44281.33333333334</v>
+      </c>
+      <c r="B66" t="n">
+        <v>14.22786074188775</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44281.5625</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>13.66309367746572</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44282.26041666666</v>
+      </c>
+      <c r="B68" t="n">
+        <v>15.76486354851065</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44282.51041666666</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>15.45103202172818</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44283.125</v>
+      </c>
+      <c r="B70" t="n">
+        <v>17.59200162137754</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44283.77083333334</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>18.32431923313118</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44289.13541666666</v>
+      </c>
+      <c r="B72" t="n">
+        <v>20.90485978762509</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44289.625</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>21.73532658863403</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44304.35416666666</v>
+      </c>
+      <c r="B74" t="n">
+        <v>28.55273975843332</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44304.48958333334</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>25.41525192226948</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44317.61458333334</v>
+      </c>
+      <c r="B76" t="n">
+        <v>46.96961195651575</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44318.14583333334</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>48.19832113981851</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44323.66666666666</v>
+      </c>
+      <c r="B78" t="n">
+        <v>45.71379580038196</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44323.8125</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>43.53255668805134</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44332.57291666666</v>
+      </c>
+      <c r="B80" t="n">
+        <v>52.54437218603178</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44332.67708333334</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>47.88360660730587</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44347.36458333334</v>
+      </c>
+      <c r="B82" t="n">
+        <v>31.72294068501341</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44347.77083333334</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>31.32487647474663</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44384.46875</v>
+      </c>
+      <c r="B84" t="n">
+        <v>37.08335128129671</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44384.92708333334</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>36.94075763171076</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44391.59375</v>
+      </c>
+      <c r="B86" t="n">
+        <v>31.12141489314654</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44392.10416666666</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>30.74211993423161</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44403.04166666666</v>
+      </c>
+      <c r="B88" t="n">
+        <v>29.63762510321963</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44403.33333333334</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>29.36151843268062</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44406.67708333334</v>
+      </c>
+      <c r="B90" t="n">
+        <v>30.31054695596724</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44407.35416666666</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>31.73624000673923</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44414.66666666666</v>
+      </c>
+      <c r="B92" t="n">
+        <v>39.91591015260936</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44415</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>39.12855014011169</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44423.72916666666</v>
+      </c>
+      <c r="B94" t="n">
+        <v>50.73650140607042</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44424.82291666666</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>64.31932694245472</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44434.58333333334</v>
+      </c>
+      <c r="B96" t="n">
+        <v>76.80341673494816</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44435</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>74.17048385561863</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44438.78125</v>
+      </c>
+      <c r="B98" t="n">
+        <v>113.4285187632751</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44438.98958333334</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>107.7612142486828</v>
       </c>
     </row>
   </sheetData>
